--- a/Divisions/EC.xlsx
+++ b/Divisions/EC.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7266" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="318">
   <si>
     <t>Team</t>
   </si>
@@ -683,6 +684,294 @@
   </si>
   <si>
     <t>3.0541</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Aldershot,W L D W L L</t>
+  </si>
+  <si>
+    <t>Altrincham,L L L L D L</t>
+  </si>
+  <si>
+    <t>Barnet,W D W L L W</t>
+  </si>
+  <si>
+    <t>Boreham Wood,W D L D L W</t>
+  </si>
+  <si>
+    <t>Bromley,W W W W L W</t>
+  </si>
+  <si>
+    <t>Chesterfield,L L D W L L</t>
+  </si>
+  <si>
+    <t>Dag and Red,L W W W W W</t>
+  </si>
+  <si>
+    <t>Dover Athletic,L D L L W L</t>
+  </si>
+  <si>
+    <t>Eastleigh,D L W W W L</t>
+  </si>
+  <si>
+    <t>Halifax,W W L W L W</t>
+  </si>
+  <si>
+    <t>Hartlepool,W D W W W L</t>
+  </si>
+  <si>
+    <t>Kings Lynn,L D L L D L</t>
+  </si>
+  <si>
+    <t>Maidenhead,D W W L D D</t>
+  </si>
+  <si>
+    <t>Notts County,L L L D L D</t>
+  </si>
+  <si>
+    <t>Solihull,W L W L L W</t>
+  </si>
+  <si>
+    <t>Stockport,W D W W W W</t>
+  </si>
+  <si>
+    <t>Sutton,D L W L W W</t>
+  </si>
+  <si>
+    <t>Torquay,W W D W W W</t>
+  </si>
+  <si>
+    <t>Wealdstone,L L L L L L</t>
+  </si>
+  <si>
+    <t>Weymouth,L L L W W L</t>
+  </si>
+  <si>
+    <t>Woking,L L L L L L</t>
+  </si>
+  <si>
+    <t>Wrexham,L W W D W D</t>
+  </si>
+  <si>
+    <t>Yeovil,W W L W W L</t>
+  </si>
+  <si>
+    <t>Aldershot,3 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Altrincham,0 0 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Barnet,3 0 3 0 0 2</t>
+  </si>
+  <si>
+    <t>Boreham Wood,3 0 0 0 0 5</t>
+  </si>
+  <si>
+    <t>Bromley,1 4 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Chesterfield,1 1 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Dag and Red,0 2 3 3 2 3</t>
+  </si>
+  <si>
+    <t>Dover Athletic,0 1 1 0 3 1</t>
+  </si>
+  <si>
+    <t>Eastleigh,0 0 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Halifax,4 2 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Hartlepool,2 2 2 7 3 0</t>
+  </si>
+  <si>
+    <t>Kings Lynn,2 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t>Maidenhead,2 6 2 0 0 2</t>
+  </si>
+  <si>
+    <t>Notts County,0 1 0 2 0 1</t>
+  </si>
+  <si>
+    <t>Solihull,2 2 5 0 1 4</t>
+  </si>
+  <si>
+    <t>Stockport,4 2 3 4 1 4</t>
+  </si>
+  <si>
+    <t>Sutton,0 0 4 0 1 3</t>
+  </si>
+  <si>
+    <t>Torquay,1 2 2 2 3 2</t>
+  </si>
+  <si>
+    <t>Wealdstone,1 2 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Weymouth,2 1 0 1 4 0</t>
+  </si>
+  <si>
+    <t>Woking,0 0 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Wrexham,0 4 4 0 2 2</t>
+  </si>
+  <si>
+    <t>Yeovil,3 1 1 3 2 0</t>
+  </si>
+  <si>
+    <t>Aldershot,0 3 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Altrincham,2 1 4 3 1 4</t>
+  </si>
+  <si>
+    <t>Barnet,1 0 2 1 2 0</t>
+  </si>
+  <si>
+    <t>Boreham Wood,1 0 1 0 3 1</t>
+  </si>
+  <si>
+    <t>Bromley,0 3 1 1 2 0</t>
+  </si>
+  <si>
+    <t>Chesterfield,2 2 0 1 3 2</t>
+  </si>
+  <si>
+    <t>Dag and Red,1 0 2 0 0 1</t>
+  </si>
+  <si>
+    <t>Dover Athletic,1 1 3 2 1 3</t>
+  </si>
+  <si>
+    <t>Eastleigh,0 2 0 0 0 3</t>
+  </si>
+  <si>
+    <t>Halifax,2 1 2 0 1 0</t>
+  </si>
+  <si>
+    <t>Hartlepool,1 2 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Kings Lynn,4 1 3 4 0 5</t>
+  </si>
+  <si>
+    <t>Maidenhead,2 0 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Notts County,2 2 1 2 2 1</t>
+  </si>
+  <si>
+    <t>Solihull,1 3 1 3 2 0</t>
+  </si>
+  <si>
+    <t>Stockport,0 2 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Sutton,0 1 0 1 0 1</t>
+  </si>
+  <si>
+    <t>Torquay,0 0 2 1 1 0</t>
+  </si>
+  <si>
+    <t>Wealdstone,3 7 6 2 2 4</t>
+  </si>
+  <si>
+    <t>Weymouth,3 2 3 0 2 2</t>
+  </si>
+  <si>
+    <t>Woking,4 2 2 1 4 3</t>
+  </si>
+  <si>
+    <t>Wrexham,3 0 0 0 1 2</t>
+  </si>
+  <si>
+    <t>Yeovil,1 0 5 0 0 3</t>
+  </si>
+  <si>
+    <t>Aldershot,3 4 2 2 3 4</t>
+  </si>
+  <si>
+    <t>Altrincham,2 1 4 5 2 4</t>
+  </si>
+  <si>
+    <t>Barnet,4 0 5 1 2 2</t>
+  </si>
+  <si>
+    <t>Boreham Wood,4 0 1 0 3 6</t>
+  </si>
+  <si>
+    <t>Bromley,1 7 3 3 3 1</t>
+  </si>
+  <si>
+    <t>Chesterfield,3 3 0 3 4 2</t>
+  </si>
+  <si>
+    <t>Dag and Red,1 2 5 3 2 4</t>
+  </si>
+  <si>
+    <t>Dover Athletic,1 2 4 2 4 4</t>
+  </si>
+  <si>
+    <t>Eastleigh,0 2 1 1 2 4</t>
+  </si>
+  <si>
+    <t>Halifax,6 3 3 1 1 3</t>
+  </si>
+  <si>
+    <t>Hartlepool,3 4 2 9 4 1</t>
+  </si>
+  <si>
+    <t>Kings Lynn,6 2 3 4 0 6</t>
+  </si>
+  <si>
+    <t>Maidenhead,4 6 3 1 0 4</t>
+  </si>
+  <si>
+    <t>Notts County,2 3 1 4 2 2</t>
+  </si>
+  <si>
+    <t>Solihull,3 5 6 3 3 4</t>
+  </si>
+  <si>
+    <t>Stockport,4 4 3 4 1 4</t>
+  </si>
+  <si>
+    <t>Sutton,0 1 4 1 1 4</t>
+  </si>
+  <si>
+    <t>Torquay,1 2 4 3 4 2</t>
+  </si>
+  <si>
+    <t>Wealdstone,4 9 6 2 2 4</t>
+  </si>
+  <si>
+    <t>Weymouth,5 3 3 1 6 2</t>
+  </si>
+  <si>
+    <t>Woking,4 2 3 1 6 4</t>
+  </si>
+  <si>
+    <t>Wrexham,3 4 4 0 3 4</t>
+  </si>
+  <si>
+    <t>Yeovil,4 1 6 3 2 3</t>
   </si>
 </sst>
 </file>
@@ -22893,4 +23182,423 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/EC.xlsx
+++ b/Divisions/EC.xlsx
@@ -879,208 +879,208 @@
     <t>Yeovil,W W L L L W</t>
   </si>
   <si>
-    <t>Aldershot,1 2 1 1 2 1</t>
-  </si>
-  <si>
-    <t>Altrincham,0 0 2 1 0 1</t>
-  </si>
-  <si>
-    <t>Barnet,3 0 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Boreham Wood,0 0 0 5 1 2</t>
-  </si>
-  <si>
-    <t>Bromley,2 1 1 0 1 2</t>
-  </si>
-  <si>
-    <t>Chesterfield,2 1 0 4 4 0</t>
-  </si>
-  <si>
-    <t>Dag and Red,3 2 3 5 1 3</t>
-  </si>
-  <si>
-    <t>Dover Athletic,0 1 1 0 3 1</t>
-  </si>
-  <si>
-    <t>Eastleigh,0 1 1 2 1 3</t>
-  </si>
-  <si>
-    <t>Halifax,1 1 0 3 0 0</t>
-  </si>
-  <si>
-    <t>Hartlepool,2 7 3 0 2 3</t>
-  </si>
-  <si>
-    <t>Kings Lynn,0 0 0 1 1 1</t>
-  </si>
-  <si>
-    <t>Maidenhead,0 0 2 4 0 0</t>
-  </si>
-  <si>
-    <t>Notts County,0 1 3 4 4 2</t>
-  </si>
-  <si>
-    <t>Solihull,5 0 1 4 2 2</t>
-  </si>
-  <si>
-    <t>Stockport,3 4 1 4 1 2</t>
-  </si>
-  <si>
-    <t>Sutton,1 3 2 2 3 3</t>
-  </si>
-  <si>
-    <t>Torquay,2 2 3 2 0 2</t>
-  </si>
-  <si>
-    <t>Wealdstone,0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Weymouth,1 4 0 0 1 2</t>
-  </si>
-  <si>
-    <t>Woking,0 2 1 1 2 1</t>
-  </si>
-  <si>
-    <t>Wrexham,4 0 2 2 3 3</t>
-  </si>
-  <si>
-    <t>Yeovil,3 2 0 0 0 3</t>
-  </si>
-  <si>
-    <t>Aldershot,1 0 2 3 0 3</t>
-  </si>
-  <si>
-    <t>Altrincham,1 4 3 1 4 2</t>
-  </si>
-  <si>
-    <t>Barnet,2 1 2 0 4 3</t>
-  </si>
-  <si>
-    <t>Boreham Wood,1 0 3 1 0 3</t>
-  </si>
-  <si>
-    <t>Bromley,1 2 0 0 0 2</t>
-  </si>
-  <si>
-    <t>Chesterfield,1 3 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Dag and Red,0 0 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Dover Athletic,1 1 3 2 1 3</t>
-  </si>
-  <si>
-    <t>Eastleigh,2 0 0 0 3 0</t>
-  </si>
-  <si>
-    <t>Halifax,2 0 1 0 1 3</t>
-  </si>
-  <si>
-    <t>Hartlepool,0 2 1 1 4 1</t>
-  </si>
-  <si>
-    <t>Kings Lynn,3 4 0 5 4 3</t>
-  </si>
-  <si>
-    <t>Maidenhead,1 0 2 2 4 3</t>
-  </si>
-  <si>
-    <t>Notts County,2 1 2 1 0 2</t>
-  </si>
-  <si>
-    <t>Solihull,1 3 2 0 1 1</t>
-  </si>
-  <si>
-    <t>Stockport,0 0 0 0 1 2</t>
-  </si>
-  <si>
-    <t>Sutton,0 1 3 0 2 0</t>
-  </si>
-  <si>
-    <t>Torquay,2 1 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Wealdstone,2 2 4 5 1 0</t>
-  </si>
-  <si>
-    <t>Weymouth,0 2 2 2 2 1</t>
-  </si>
-  <si>
-    <t>Woking,1 4 3 4 3 2</t>
-  </si>
-  <si>
-    <t>Wrexham,0 0 1 2 0 2</t>
-  </si>
-  <si>
-    <t>Yeovil,0 0 3 3 2 1</t>
-  </si>
-  <si>
-    <t>Aldershot,2 2 3 4 2 4</t>
-  </si>
-  <si>
-    <t>Altrincham,1 4 5 2 4 3</t>
-  </si>
-  <si>
-    <t>Barnet,5 1 2 2 5 3</t>
-  </si>
-  <si>
-    <t>Boreham Wood,1 0 3 6 1 5</t>
-  </si>
-  <si>
-    <t>Bromley,3 3 1 0 1 4</t>
-  </si>
-  <si>
-    <t>Chesterfield,3 4 2 5 5 0</t>
-  </si>
-  <si>
-    <t>Dag and Red,3 2 4 5 2 3</t>
-  </si>
-  <si>
-    <t>Dover Athletic,1 2 4 2 4 4</t>
-  </si>
-  <si>
-    <t>Eastleigh,2 1 1 2 4 3</t>
-  </si>
-  <si>
-    <t>Halifax,3 1 1 3 1 3</t>
-  </si>
-  <si>
-    <t>Hartlepool,2 9 4 1 6 4</t>
-  </si>
-  <si>
-    <t>Kings Lynn,3 4 0 6 5 4</t>
-  </si>
-  <si>
-    <t>Maidenhead,1 0 4 6 4 3</t>
-  </si>
-  <si>
-    <t>Notts County,2 2 5 5 4 4</t>
-  </si>
-  <si>
-    <t>Solihull,6 3 3 4 3 3</t>
-  </si>
-  <si>
-    <t>Stockport,3 4 1 4 2 4</t>
-  </si>
-  <si>
-    <t>Sutton,1 4 5 2 5 3</t>
-  </si>
-  <si>
-    <t>Torquay,4 3 4 2 0 4</t>
-  </si>
-  <si>
-    <t>Weymouth,1 6 2 2 3 3</t>
-  </si>
-  <si>
-    <t>Woking,1 6 4 5 5 3</t>
-  </si>
-  <si>
-    <t>Wrexham,4 0 3 4 3 5</t>
-  </si>
-  <si>
-    <t>Yeovil,3 2 3 3 2 4</t>
+    <t>Aldershot,1 2 1 1 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Altrincham,0 0 2 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Barnet,3 0 0 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Boreham Wood,0 0 0 5 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Bromley,2 1 1 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Chesterfield,2 1 0 4 4 0,(11)</t>
+  </si>
+  <si>
+    <t>Dag and Red,3 2 3 5 1 3,(17)</t>
+  </si>
+  <si>
+    <t>Dover Athletic,0 1 1 0 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Eastleigh,0 1 1 2 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Halifax,1 1 0 3 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Hartlepool,2 7 3 0 2 3,(17)</t>
+  </si>
+  <si>
+    <t>Kings Lynn,0 0 0 1 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Maidenhead,0 0 2 4 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Notts County,0 1 3 4 4 2,(14)</t>
+  </si>
+  <si>
+    <t>Solihull,5 0 1 4 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Stockport,3 4 1 4 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Sutton,1 3 2 2 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Torquay,2 2 3 2 0 2,(11)</t>
+  </si>
+  <si>
+    <t>Wealdstone,0 0 0 0 0 0,(0)</t>
+  </si>
+  <si>
+    <t>Weymouth,1 4 0 0 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Woking,0 2 1 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Wrexham,4 0 2 2 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Yeovil,3 2 0 0 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Aldershot,1 0 2 3 0 3,(9)</t>
+  </si>
+  <si>
+    <t>Altrincham,1 4 3 1 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Barnet,2 1 2 0 4 3,(12)</t>
+  </si>
+  <si>
+    <t>Boreham Wood,1 0 3 1 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Bromley,1 2 0 0 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Chesterfield,1 3 2 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Dag and Red,0 0 1 0 1 0,(2)</t>
+  </si>
+  <si>
+    <t>Dover Athletic,1 1 3 2 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Eastleigh,2 0 0 0 3 0,(5)</t>
+  </si>
+  <si>
+    <t>Halifax,2 0 1 0 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Hartlepool,0 2 1 1 4 1,(9)</t>
+  </si>
+  <si>
+    <t>Kings Lynn,3 4 0 5 4 3,(19)</t>
+  </si>
+  <si>
+    <t>Maidenhead,1 0 2 2 4 3,(12)</t>
+  </si>
+  <si>
+    <t>Notts County,2 1 2 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Solihull,1 3 2 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Stockport,0 0 0 0 1 2,(3)</t>
+  </si>
+  <si>
+    <t>Sutton,0 1 3 0 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Torquay,2 1 1 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Wealdstone,2 2 4 5 1 0,(14)</t>
+  </si>
+  <si>
+    <t>Weymouth,0 2 2 2 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Woking,1 4 3 4 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Wrexham,0 0 1 2 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Yeovil,0 0 3 3 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Aldershot,2 2 3 4 2 4,(17)</t>
+  </si>
+  <si>
+    <t>Altrincham,1 4 5 2 4 3,(19)</t>
+  </si>
+  <si>
+    <t>Barnet,5 1 2 2 5 3,(18)</t>
+  </si>
+  <si>
+    <t>Boreham Wood,1 0 3 6 1 5,(16)</t>
+  </si>
+  <si>
+    <t>Bromley,3 3 1 0 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Chesterfield,3 4 2 5 5 0,(19)</t>
+  </si>
+  <si>
+    <t>Dag and Red,3 2 4 5 2 3,(19)</t>
+  </si>
+  <si>
+    <t>Dover Athletic,1 2 4 2 4 4,(17)</t>
+  </si>
+  <si>
+    <t>Eastleigh,2 1 1 2 4 3,(13)</t>
+  </si>
+  <si>
+    <t>Halifax,3 1 1 3 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Hartlepool,2 9 4 1 6 4,(26)</t>
+  </si>
+  <si>
+    <t>Kings Lynn,3 4 0 6 5 4,(22)</t>
+  </si>
+  <si>
+    <t>Maidenhead,1 0 4 6 4 3,(18)</t>
+  </si>
+  <si>
+    <t>Notts County,2 2 5 5 4 4,(22)</t>
+  </si>
+  <si>
+    <t>Solihull,6 3 3 4 3 3,(22)</t>
+  </si>
+  <si>
+    <t>Stockport,3 4 1 4 2 4,(18)</t>
+  </si>
+  <si>
+    <t>Sutton,1 4 5 2 5 3,(20)</t>
+  </si>
+  <si>
+    <t>Torquay,4 3 4 2 0 4,(17)</t>
+  </si>
+  <si>
+    <t>Weymouth,1 6 2 2 3 3,(17)</t>
+  </si>
+  <si>
+    <t>Woking,1 6 4 5 5 3,(24)</t>
+  </si>
+  <si>
+    <t>Wrexham,4 0 3 4 3 5,(19)</t>
+  </si>
+  <si>
+    <t>Yeovil,3 2 3 3 2 4,(17)</t>
   </si>
   <si>
     <t>Aldershot,Kings Lynn Wealdstone Torquay Sutton Yeovil Hartlepool</t>
